--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PHRONESIS/4.40/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PHRONESIS/4.40/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione sogei/Accreditamenti e report/PHRONESIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/validazione_sogei/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PHRONESIS/4.40/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23057FB-E59D-47BD-B6D8-2E08D8469831}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2586D57A-C220-4100-9666-27796DFB02C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1299,6 +1299,34 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1321,35 +1349,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1425,10 +1424,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3823,10 +3818,10 @@
   <dimension ref="A1:T651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD34"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3864,12 +3859,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="37"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -3887,14 +3882,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="37"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -3912,12 +3907,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="35" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -3936,12 +3931,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="37"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -3959,8 +3954,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4077,997 +4072,995 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>30</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="44" t="s">
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>38</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="44" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24">
         <v>46</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41" t="s">
+      <c r="O12" s="29"/>
+      <c r="P12" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="42" t="s">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44" t="s">
+      <c r="S12" s="31"/>
+      <c r="T12" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>170</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="27">
         <v>45219</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="44" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>171</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="27">
         <v>45219</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="41" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="T14" s="44" t="s">
+      <c r="T14" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>172</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="27">
         <v>45219</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="41" t="s">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="T15" s="44" t="s">
+      <c r="T15" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
         <v>173</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="27">
         <v>45219</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="41" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="T16" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+    <row r="17" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>174</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="44" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+    <row r="18" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
         <v>175</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>176</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>177</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>178</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>179</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>180</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>181</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>182</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>183</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>184</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>185</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>186</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>187</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>188</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>189</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>190</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>375</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="27">
         <v>45219</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
-        <v>176</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
-        <v>177</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
-        <v>178</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
-        <v>179</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
-        <v>180</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K23" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
-        <v>181</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
-        <v>182</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="G34" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K26" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="H34" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K27" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+      <c r="I34" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K28" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
-        <v>186</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
-        <v>187</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
-        <v>188</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
-        <v>189</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>190</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
-        <v>375</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="39">
-        <v>45219</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="44" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="32" t="s">
         <v>46</v>
       </c>
     </row>

--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PHRONESIS/4.40/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PHRONESIS/4.40/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/validazione_sogei/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PHRONESIS/4.40/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2586D57A-C220-4100-9666-27796DFB02C1}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49DB122E-F985-45D5-A86F-090C7C2B0BFA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="188">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -839,12 +839,6 @@
     <t>subject_application_version: 4.40</t>
   </si>
   <si>
-    <t>il nostro gestionale non gestisce la sezione Piani di Cura</t>
-  </si>
-  <si>
-    <t>il nostro gestionale non gestisce le sezioni Piani di Cura e Reti di patologia</t>
-  </si>
-  <si>
     <t>Non è possibile simulare tale scenario in quanto il nostro applicativo non prevede il salvataggio di una terapia o prescrizione senza la data di riferimento</t>
   </si>
   <si>
@@ -857,42 +851,6 @@
     <t>2.16.840.1.113883.2.9.2.190201.4.4.295a52ca5a9df18a19a260958db74c90b4792e69e5c487d74ecb09df9f1e7da7.b032cc9add^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-10-20T07:15:12Z</t>
-  </si>
-  <si>
-    <t>21d8bcf9a7fa566a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.bd5ba38676fe3566080d8ba3af93325f2732fe354379d095ccdc5066f2010bfb.fda652f4b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-20T07:17:29Z</t>
-  </si>
-  <si>
-    <t>7ac718be392d5585</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.94f5b5f980d12d8c7a2ec6496c97443ef2971e89f0d55227c423db3dfbc2f23a.d23609fb92^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-20T07:19:54Z</t>
-  </si>
-  <si>
-    <t>ca821d07120aa14f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.28b8c9b71429c493e7428949759ad0d01e3469cf27c39f9c0fbf4ccce901452f.3b3a5d7064^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-20T07:21:48Z</t>
-  </si>
-  <si>
-    <t>ed0319bcd5c6893c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.13305536f5d45eee52987582a9af2a874bbcb859ad375fceafbc9d4aefd06ed0.80ae0e7f55^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Il nosstro sw non permette di inserire un CF paziente non conforme o con caratteri minuscoli</t>
   </si>
   <si>
@@ -900,6 +858,9 @@
   </si>
   <si>
     <t>Il medico clicca su "OK" sulla finestra di errore quindi può ritentare l'invio</t>
+  </si>
+  <si>
+    <t>il nostro gestionale non gestisce le sezioni Piani di Cura, Reti di patologia e annotazioni</t>
   </si>
 </sst>
 </file>
@@ -1424,6 +1385,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3818,10 +3783,10 @@
   <dimension ref="A1:T651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4177,11 +4142,11 @@
         <v>60</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="29"/>
       <c r="R12" s="30" t="s">
@@ -4208,22 +4173,16 @@
       <c r="E13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="27">
-        <v>45219</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="28" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="I13" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -4252,22 +4211,16 @@
       <c r="E14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="27">
-        <v>45219</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>191</v>
-      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>187</v>
+      </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -4275,9 +4228,7 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="30"/>
-      <c r="S14" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="S14" s="29"/>
       <c r="T14" s="32" t="s">
         <v>46</v>
       </c>
@@ -4298,22 +4249,16 @@
       <c r="E15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="27">
-        <v>45219</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>194</v>
-      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>187</v>
+      </c>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -4321,9 +4266,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="30"/>
-      <c r="S15" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="S15" s="29"/>
       <c r="T15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4344,22 +4287,16 @@
       <c r="E16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="27">
-        <v>45219</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>197</v>
-      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>187</v>
+      </c>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
@@ -4367,9 +4304,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
-      <c r="S16" s="29" t="s">
-        <v>181</v>
-      </c>
+      <c r="S16" s="29"/>
       <c r="T16" s="32" t="s">
         <v>46</v>
       </c>
@@ -4436,7 +4371,7 @@
         <v>159</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
@@ -4816,7 +4751,7 @@
         <v>159</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -5040,13 +4975,13 @@
         <v>45219</v>
       </c>
       <c r="G34" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I34" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>185</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>60</v>
